--- a/Test/TestData/test_data.xlsx
+++ b/Test/TestData/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfnsh\PycharmProjects\Automation Exercise\Test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2825B3-1D12-4704-A5D2-244CC36AEBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83875FD8-F067-40CD-A508-37D479087E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>frontend_url</t>
   </si>
@@ -64,9 +64,6 @@
     <t>project_name</t>
   </si>
   <si>
-    <t>rfnshare@gmail.com</t>
-  </si>
-  <si>
     <t>stage</t>
   </si>
   <si>
@@ -79,12 +76,6 @@
     <t>prod</t>
   </si>
   <si>
-    <t>brainstation23@yopmail.com</t>
-  </si>
-  <si>
-    <t>Pass@1234</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
@@ -101,6 +92,9 @@
   </si>
   <si>
     <t>Assesment Test</t>
+  </si>
+  <si>
+    <t>aalfaroque@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -494,21 +488,21 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -523,34 +517,34 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="str">
         <f>VLOOKUP(A2,urls!A1:B3,2,FALSE)</f>
         <v>https://automationexercise.com</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -565,8 +559,11 @@
       <formula1>"smoke, regression"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{7699D023-09FC-4BDF-9E1C-4B1AFEBBE04E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -587,18 +584,18 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -606,18 +603,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
@@ -625,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -633,10 +626,6 @@
       <c r="C9" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -646,36 +635,36 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
